--- a/PPE_calculator_wide.xlsx
+++ b/PPE_calculator_wide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eotles/Documents/workspace/covid_staffing_exo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AF3A54-DB98-5E42-85CF-1790728D6F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7BA25E-170D-DE47-96BC-21B3312F3AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{CE7FBBC9-ED7D-2B46-9B81-72B960D0E09A}"/>
+    <workbookView xWindow="-53220" yWindow="-11800" windowWidth="41780" windowHeight="26400" xr2:uid="{CE7FBBC9-ED7D-2B46-9B81-72B960D0E09A}"/>
   </bookViews>
   <sheets>
     <sheet name="roll-up" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Registered Nurse </t>
   </si>
@@ -109,18 +109,6 @@
   </si>
   <si>
     <t>your inputs</t>
-  </si>
-  <si>
-    <t>Step 1</t>
-  </si>
-  <si>
-    <t>Step 2</t>
-  </si>
-  <si>
-    <t>Step 3</t>
-  </si>
-  <si>
-    <t>Results</t>
   </si>
   <si>
     <t>Contacts / Pt</t>
@@ -289,9 +277,6 @@
     <t>Purple Wipes</t>
   </si>
   <si>
-    <t>Assessment</t>
-  </si>
-  <si>
     <t>ED</t>
   </si>
   <si>
@@ -317,6 +302,9 @@
   </si>
   <si>
     <t>Non-COVID Consult</t>
+  </si>
+  <si>
+    <t>Triage</t>
   </si>
 </sst>
 </file>
@@ -403,7 +391,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,18 +424,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -737,19 +731,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -891,7 +872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -985,137 +966,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1125,13 +1043,13 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1142,6 +1060,66 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1174,7 +1152,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>16933</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>59267</xdr:rowOff>
+      <xdr:rowOff>97693</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1189,8 +1167,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="321734" y="110067"/>
-          <a:ext cx="7552266" cy="762000"/>
+          <a:off x="322386" y="110067"/>
+          <a:ext cx="11017085" cy="808241"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1290,14 +1268,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>313268</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>313269</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>25401</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>810847</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1313,8 +1291,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="313268" y="1854200"/>
-          <a:ext cx="4250266" cy="254000"/>
+          <a:off x="313269" y="2461846"/>
+          <a:ext cx="10989732" cy="255954"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1345,13 +1323,25 @@
             <a:rPr lang="en-US" sz="1050" b="1">
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t>You can add/remove provider types</a:t>
+            <a:t>Step 2</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1050" b="1" baseline="0">
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t> in the table below.</a:t>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="1">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Number</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="1" baseline="0">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> of contacts that a single patient would have with each role over a 24 hour period. Roles be added and removed.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1050">
             <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
@@ -1365,13 +1355,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>313268</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>135466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>186266</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1419,13 +1409,173 @@
             <a:rPr lang="en-US" sz="1050" b="1">
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t>You can add/remove PPE items</a:t>
+            <a:t>Step 3: PPE that is</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1050" b="1" baseline="0">
               <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
             </a:rPr>
-            <a:t> in the table below.</a:t>
+            <a:t> used for each contact in each setting. PPE can be added and removed.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1050">
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>298939</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>791307</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>174543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{283B6CBD-205A-6344-8061-2A5B48712C7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22103862" y="2048281"/>
+          <a:ext cx="10251830" cy="255954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="1">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Expected</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="1" baseline="0">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> number of PPE to be used in a day.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1050">
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>309361</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>806939</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>193431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5047BA-3049-F24D-930E-B9E25E888418}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="309361" y="1168400"/>
+          <a:ext cx="10989732" cy="255954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="1">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Step 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="1" baseline="0">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="1">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Identiy PPE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="1" baseline="0">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> use areas and patient censuses.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1050">
             <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
@@ -1794,16 +1944,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADCAB64-EF5D-184C-8CB6-400E6CD8B782}">
-  <dimension ref="A1:AW35"/>
+  <dimension ref="A1:AW37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" style="1" customWidth="1"/>
     <col min="3" max="12" width="10.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="4.1640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="13.5" style="1" customWidth="1"/>
@@ -1818,203 +1968,106 @@
   <sheetData>
     <row r="1" spans="2:48" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B2" s="82"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
     </row>
     <row r="3" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-    </row>
-    <row r="5" spans="2:48" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:48" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="94" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+    </row>
+    <row r="5" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+    </row>
+    <row r="6" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+    </row>
+    <row r="7" spans="2:48" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:48" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="90"/>
+      <c r="C8" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="I8" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="J8" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="95" t="s">
+      <c r="K8" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="L8" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="95" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="95" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="9" t="s">
+      <c r="N8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="32"/>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
-      <c r="AQ6" s="32"/>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="32"/>
-      <c r="AT6" s="32"/>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="32"/>
-    </row>
-    <row r="7" spans="2:48" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="66">
-        <v>50</v>
-      </c>
-      <c r="D7" s="50">
-        <v>100</v>
-      </c>
-      <c r="E7" s="50">
-        <v>10</v>
-      </c>
-      <c r="F7" s="50">
-        <v>10</v>
-      </c>
-      <c r="G7" s="50">
-        <v>10</v>
-      </c>
-      <c r="H7" s="50">
-        <v>10</v>
-      </c>
-      <c r="I7" s="50">
-        <v>10</v>
-      </c>
-      <c r="J7" s="50">
-        <v>10</v>
-      </c>
-      <c r="K7" s="50">
-        <v>10</v>
-      </c>
-      <c r="L7" s="11">
-        <v>10</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-    </row>
-    <row r="8" spans="2:48" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="31"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
@@ -2050,20 +2103,27 @@
       <c r="AU8" s="32"/>
       <c r="AV8" s="32"/>
     </row>
-    <row r="9" spans="2:48" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
+    <row r="9" spans="2:48" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="58">
+        <v>50</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="11">
+        <v>10</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
@@ -2099,8 +2159,20 @@
       <c r="AU9" s="32"/>
       <c r="AV9" s="32"/>
     </row>
-    <row r="10" spans="2:48" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N10" s="8"/>
+    <row r="10" spans="2:48" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="31"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
@@ -2136,1410 +2208,1348 @@
       <c r="AU10" s="32"/>
       <c r="AV10" s="32"/>
     </row>
-    <row r="11" spans="2:48" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
+    <row r="11" spans="2:48" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="32"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="32"/>
+      <c r="AN11" s="32"/>
+      <c r="AO11" s="32"/>
+      <c r="AP11" s="32"/>
+      <c r="AQ11" s="32"/>
+      <c r="AR11" s="32"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="32"/>
+      <c r="AU11" s="32"/>
+      <c r="AV11" s="32"/>
+    </row>
+    <row r="12" spans="2:48" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="32"/>
+      <c r="AN12" s="32"/>
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="32"/>
+      <c r="AR12" s="32"/>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="32"/>
+      <c r="AU12" s="32"/>
+      <c r="AV12" s="32"/>
+    </row>
+    <row r="13" spans="2:48" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="91"/>
+      <c r="C13" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="77"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="76"/>
-      <c r="N11" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="47" t="s">
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AK11" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL11" s="79" t="s">
+      <c r="AK13" s="92"/>
+      <c r="AL13" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="AM11" s="80"/>
-      <c r="AN11" s="80"/>
-      <c r="AO11" s="80"/>
-      <c r="AP11" s="80"/>
-      <c r="AQ11" s="80"/>
-      <c r="AR11" s="80"/>
-      <c r="AS11" s="80"/>
-      <c r="AT11" s="80"/>
-      <c r="AU11" s="80"/>
-      <c r="AV11" s="81"/>
-    </row>
-    <row r="12" spans="2:48" ht="30" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="AM13" s="81"/>
+      <c r="AN13" s="81"/>
+      <c r="AO13" s="81"/>
+      <c r="AP13" s="81"/>
+      <c r="AQ13" s="81"/>
+      <c r="AR13" s="81"/>
+      <c r="AS13" s="81"/>
+      <c r="AT13" s="81"/>
+      <c r="AU13" s="81"/>
+      <c r="AV13" s="82"/>
+    </row>
+    <row r="14" spans="2:48" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="91" t="str">
-        <f>C6</f>
-        <v>Assessment</v>
-      </c>
-      <c r="D12" s="92" t="str">
-        <f>D6</f>
+      <c r="C14" s="70" t="str">
+        <f>C8</f>
+        <v>Triage</v>
+      </c>
+      <c r="D14" s="71" t="str">
+        <f>D8</f>
         <v>ED</v>
       </c>
-      <c r="E12" s="92" t="str">
-        <f t="shared" ref="E12:K12" si="0">E6</f>
+      <c r="E14" s="71" t="str">
+        <f t="shared" ref="E14:K14" si="0">E8</f>
         <v>COVID floor</v>
       </c>
-      <c r="F12" s="92" t="str">
+      <c r="F14" s="71" t="str">
         <f t="shared" si="0"/>
         <v>COVID ICU Step-Down</v>
       </c>
-      <c r="G12" s="92" t="str">
+      <c r="G14" s="71" t="str">
         <f t="shared" si="0"/>
         <v>COVID ICU Intubated</v>
       </c>
-      <c r="H12" s="92" t="str">
+      <c r="H14" s="71" t="str">
         <f t="shared" si="0"/>
         <v>Non-COVID floor</v>
       </c>
-      <c r="I12" s="92" t="str">
+      <c r="I14" s="71" t="str">
         <f t="shared" si="0"/>
         <v>Non-COVID SD</v>
       </c>
-      <c r="J12" s="92" t="str">
+      <c r="J14" s="71" t="str">
         <f t="shared" si="0"/>
         <v>Non-COVID ICU</v>
       </c>
-      <c r="K12" s="92" t="str">
+      <c r="K14" s="71" t="str">
         <f t="shared" si="0"/>
         <v>COVID Consult</v>
       </c>
-      <c r="L12" s="93" t="str">
-        <f>L6</f>
+      <c r="L14" s="72" t="str">
+        <f>L8</f>
         <v>Non-COVID Consult</v>
       </c>
-      <c r="N12" s="58" t="s">
+      <c r="N14" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="46" t="str">
-        <f>C6</f>
-        <v>Assessment</v>
-      </c>
-      <c r="P12" s="51" t="str">
-        <f t="shared" ref="P12:W12" si="1">D6</f>
+      <c r="O14" s="71" t="str">
+        <f>C8</f>
+        <v>Triage</v>
+      </c>
+      <c r="P14" s="71" t="str">
+        <f t="shared" ref="P14:W14" si="1">D8</f>
         <v>ED</v>
       </c>
-      <c r="Q12" s="51" t="str">
+      <c r="Q14" s="71" t="str">
         <f t="shared" si="1"/>
         <v>COVID floor</v>
       </c>
-      <c r="R12" s="51" t="str">
+      <c r="R14" s="71" t="str">
         <f t="shared" si="1"/>
         <v>COVID ICU Step-Down</v>
       </c>
-      <c r="S12" s="51" t="str">
+      <c r="S14" s="71" t="str">
         <f t="shared" si="1"/>
         <v>COVID ICU Intubated</v>
       </c>
-      <c r="T12" s="51" t="str">
+      <c r="T14" s="71" t="str">
         <f t="shared" si="1"/>
         <v>Non-COVID floor</v>
       </c>
-      <c r="U12" s="51" t="str">
+      <c r="U14" s="71" t="str">
         <f t="shared" si="1"/>
         <v>Non-COVID SD</v>
       </c>
-      <c r="V12" s="51" t="str">
+      <c r="V14" s="71" t="str">
         <f t="shared" si="1"/>
         <v>Non-COVID ICU</v>
       </c>
-      <c r="W12" s="51" t="str">
+      <c r="W14" s="71" t="str">
         <f t="shared" si="1"/>
         <v>COVID Consult</v>
       </c>
-      <c r="X12" s="48" t="str">
-        <f>L6</f>
+      <c r="X14" s="71" t="str">
+        <f>L8</f>
         <v>Non-COVID Consult</v>
       </c>
-      <c r="Y12" s="59" t="s">
+      <c r="Y14" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="Z12" s="1" t="str">
-        <f>O12</f>
-        <v>Assessment</v>
-      </c>
-      <c r="AA12" s="1" t="str">
-        <f t="shared" ref="AA12:AI12" si="2">P12</f>
+      <c r="Z14" s="1" t="str">
+        <f>O14</f>
+        <v>Triage</v>
+      </c>
+      <c r="AA14" s="1" t="str">
+        <f t="shared" ref="AA14:AI14" si="2">P14</f>
         <v>ED</v>
       </c>
-      <c r="AB12" s="1" t="str">
+      <c r="AB14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>COVID floor</v>
       </c>
-      <c r="AC12" s="1" t="str">
+      <c r="AC14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>COVID ICU Step-Down</v>
       </c>
-      <c r="AD12" s="1" t="str">
+      <c r="AD14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>COVID ICU Intubated</v>
       </c>
-      <c r="AE12" s="1" t="str">
+      <c r="AE14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Non-COVID floor</v>
       </c>
-      <c r="AF12" s="1" t="str">
+      <c r="AF14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Non-COVID SD</v>
       </c>
-      <c r="AG12" s="1" t="str">
+      <c r="AG14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Non-COVID ICU</v>
       </c>
-      <c r="AH12" s="1" t="str">
+      <c r="AH14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>COVID Consult</v>
       </c>
-      <c r="AI12" s="1" t="str">
+      <c r="AI14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Non-COVID Consult</v>
       </c>
-      <c r="AK12" s="49" t="str">
-        <f>N12</f>
+      <c r="AK14" s="46" t="str">
+        <f>N14</f>
         <v>Item</v>
       </c>
-      <c r="AL12" s="61" t="str">
-        <f>C6</f>
-        <v>Assessment</v>
-      </c>
-      <c r="AM12" s="63" t="str">
-        <f>D6</f>
+      <c r="AL14" s="93" t="str">
+        <f>C8</f>
+        <v>Triage</v>
+      </c>
+      <c r="AM14" s="94" t="str">
+        <f>D8</f>
         <v>ED</v>
       </c>
-      <c r="AN12" s="63" t="str">
-        <f t="shared" ref="AN12:AT12" si="3">E6</f>
+      <c r="AN14" s="94" t="str">
+        <f t="shared" ref="AN14:AT14" si="3">E8</f>
         <v>COVID floor</v>
       </c>
-      <c r="AO12" s="63" t="str">
+      <c r="AO14" s="94" t="str">
         <f t="shared" si="3"/>
         <v>COVID ICU Step-Down</v>
       </c>
-      <c r="AP12" s="63" t="str">
+      <c r="AP14" s="94" t="str">
         <f t="shared" si="3"/>
         <v>COVID ICU Intubated</v>
       </c>
-      <c r="AQ12" s="63" t="str">
+      <c r="AQ14" s="94" t="str">
         <f t="shared" si="3"/>
         <v>Non-COVID floor</v>
       </c>
-      <c r="AR12" s="63" t="str">
+      <c r="AR14" s="94" t="str">
         <f t="shared" si="3"/>
         <v>Non-COVID SD</v>
       </c>
-      <c r="AS12" s="63" t="str">
+      <c r="AS14" s="94" t="str">
         <f t="shared" si="3"/>
         <v>Non-COVID ICU</v>
       </c>
-      <c r="AT12" s="63" t="str">
+      <c r="AT14" s="94" t="str">
         <f t="shared" si="3"/>
         <v>COVID Consult</v>
       </c>
-      <c r="AU12" s="64" t="str">
-        <f>L6</f>
+      <c r="AU14" s="95" t="str">
+        <f>L8</f>
         <v>Non-COVID Consult</v>
       </c>
-      <c r="AV12" s="65" t="s">
+      <c r="AV14" s="57" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="52">
+    <row r="15" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="48">
         <v>4</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E15" s="48">
         <v>8</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F15" s="48">
         <v>8</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G15" s="48">
         <v>12</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H15" s="48">
         <v>8</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I15" s="48">
         <v>8</v>
       </c>
-      <c r="J13" s="52">
+      <c r="J15" s="48">
         <v>8</v>
       </c>
-      <c r="K13" s="52"/>
-      <c r="L13" s="13"/>
-      <c r="N13" s="19" t="s">
+      <c r="K15" s="48"/>
+      <c r="L15" s="13"/>
+      <c r="N15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="5">
-        <v>0</v>
-      </c>
-      <c r="P13" s="89">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="89">
-        <v>0</v>
-      </c>
-      <c r="R13" s="89">
-        <v>0</v>
-      </c>
-      <c r="S13" s="89">
-        <v>0</v>
-      </c>
-      <c r="T13" s="89"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="13">
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="68">
+        <v>0</v>
+      </c>
+      <c r="R15" s="68">
+        <v>0</v>
+      </c>
+      <c r="S15" s="68">
+        <v>0</v>
+      </c>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="13">
         <v>20</v>
       </c>
-      <c r="Z13" s="67">
-        <f>IFERROR(O13/$Y13,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="68">
-        <f t="shared" ref="AA13:AI19" si="4">IFERROR(P13/$Y13,"")</f>
+      <c r="Z15" s="59">
+        <f>IFERROR(O15/$Y15,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="60">
+        <f t="shared" ref="AA15:AI21" si="4">IFERROR(P15/$Y15,"")</f>
         <v>0.05</v>
       </c>
-      <c r="AB13" s="68">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="68">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="68">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="68">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="68">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG13" s="68">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH13" s="68">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="69">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK13" s="23" t="str">
-        <f t="shared" ref="AK13:AK33" si="5">IF(ISBLANK(N13),"",N13)</f>
+      <c r="AB15" s="60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="23" t="str">
+        <f t="shared" ref="AK15:AK35" si="5">IF(ISBLANK(N15),"",N15)</f>
         <v>N95 Mask</v>
       </c>
-      <c r="AL13" s="3">
-        <f t="shared" ref="AL13:AM19" si="6">IFERROR(ROUNDUP(C$7*C$34*Z13,0), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AM13" s="55">
+      <c r="AL15" s="3">
+        <f t="shared" ref="AL15:AM21" si="6">IFERROR(ROUNDUP(C$9*C$36*Z15,0), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="51">
         <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-      <c r="AN13" s="55">
-        <f t="shared" ref="AN13:AT19" si="7">IFERROR(ROUNDUP(E$7*E$34*AB13,0), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AO13" s="55">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="51">
+        <f t="shared" ref="AN15:AT21" si="7">IFERROR(ROUNDUP(E$9*E$36*AB15,0), "")</f>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP13" s="55">
+      <c r="AP15" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AQ13" s="55">
+      <c r="AQ15" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AR13" s="55">
+      <c r="AR15" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AS13" s="55">
+      <c r="AS15" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT13" s="55">
+      <c r="AT15" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AU13" s="4">
-        <f t="shared" ref="AU13:AU33" si="8">IFERROR(ROUNDUP(L$7*L$34*AI13,0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AV13" s="24">
-        <f>IFERROR(SUM(AL13:AU13),"")</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52">
+      <c r="AU15" s="4">
+        <f t="shared" ref="AU15:AU35" si="8">IFERROR(ROUNDUP(L$9*L$36*AI15,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AV15" s="24">
+        <f>IFERROR(SUM(AL15:AU15),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48">
         <v>3</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G16" s="48">
         <v>4</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H16" s="48">
         <v>3</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I16" s="48">
         <v>2</v>
       </c>
-      <c r="J14" s="52">
+      <c r="J16" s="48">
         <v>4</v>
       </c>
-      <c r="K14" s="52"/>
-      <c r="L14" s="13"/>
-      <c r="N14" s="19" t="s">
+      <c r="K16" s="48"/>
+      <c r="L16" s="13"/>
+      <c r="N16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="5">
-        <v>1</v>
-      </c>
-      <c r="P14" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="89">
-        <v>1</v>
-      </c>
-      <c r="R14" s="89">
-        <v>1</v>
-      </c>
-      <c r="S14" s="89">
-        <v>1</v>
-      </c>
-      <c r="T14" s="89">
-        <v>1</v>
-      </c>
-      <c r="U14" s="89">
-        <v>1</v>
-      </c>
-      <c r="V14" s="89">
-        <v>1</v>
-      </c>
-      <c r="W14" s="89">
-        <v>1</v>
-      </c>
-      <c r="X14" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="13">
+      <c r="O16" s="5">
+        <v>1</v>
+      </c>
+      <c r="P16" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="68">
+        <v>1</v>
+      </c>
+      <c r="R16" s="68">
+        <v>1</v>
+      </c>
+      <c r="S16" s="68">
+        <v>1</v>
+      </c>
+      <c r="T16" s="68">
+        <v>1</v>
+      </c>
+      <c r="U16" s="68">
+        <v>1</v>
+      </c>
+      <c r="V16" s="68">
+        <v>1</v>
+      </c>
+      <c r="W16" s="68">
+        <v>1</v>
+      </c>
+      <c r="X16" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="13">
         <v>20</v>
       </c>
-      <c r="Z14" s="70">
-        <f>IFERROR(O14/$Y14,"")</f>
+      <c r="Z16" s="62">
+        <f>IFERROR(O16/$Y16,"")</f>
         <v>0.05</v>
       </c>
-      <c r="AA14" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="2">
+      <c r="AA16" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2">
         <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AC16" s="2">
         <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AD16" s="2">
         <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
-      <c r="AE14" s="2">
+      <c r="AE16" s="2">
         <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
-      <c r="AF14" s="2">
+      <c r="AF16" s="2">
         <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="AG16" s="2">
         <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
-      <c r="AH14" s="2">
+      <c r="AH16" s="2">
         <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
-      <c r="AI14" s="71">
+      <c r="AI16" s="63">
         <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
-      <c r="AK14" s="23" t="str">
+      <c r="AK16" s="23" t="str">
         <f t="shared" si="5"/>
         <v>Surgical Mask</v>
       </c>
-      <c r="AL14" s="3">
+      <c r="AL16" s="3">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="AM14" s="55">
+      <c r="AM16" s="51">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="55">
+      <c r="AN16" s="51">
         <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="AO14" s="55">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="51">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="AP14" s="55">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="51">
         <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="AQ14" s="55">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="51">
         <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="AR14" s="55">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="51">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="AS14" s="55">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="51">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AT16" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AU16" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AV16" s="24">
+        <f t="shared" ref="AV16:AV35" si="9">IFERROR(SUM(AL16:AU16),"")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="48">
+        <v>1</v>
+      </c>
+      <c r="E17" s="48">
+        <v>8</v>
+      </c>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48">
+        <v>3</v>
+      </c>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="13"/>
+      <c r="N17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AT14" s="55">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AU14" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AV14" s="24">
-        <f t="shared" ref="AV14:AV33" si="9">IFERROR(SUM(AL14:AU14),"")</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B15" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="52">
-        <v>1</v>
-      </c>
-      <c r="E15" s="52">
-        <v>8</v>
-      </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52">
-        <v>3</v>
-      </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="13"/>
-      <c r="N15" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="5">
-        <v>1</v>
-      </c>
-      <c r="P15" s="89">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="89">
-        <v>1</v>
-      </c>
-      <c r="R15" s="89">
-        <v>1</v>
-      </c>
-      <c r="S15" s="89">
-        <v>1</v>
-      </c>
-      <c r="T15" s="89"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89">
-        <v>1</v>
-      </c>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="70">
-        <f t="shared" ref="Z15:Z21" si="10">IFERROR(O15/$Y15,"")</f>
-        <v>1</v>
-      </c>
-      <c r="AA15" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB15" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AC15" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AD15" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AE15" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AI15" s="71">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK15" s="23" t="str">
+      <c r="O17" s="5">
+        <v>1</v>
+      </c>
+      <c r="P17" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="68">
+        <v>1</v>
+      </c>
+      <c r="R17" s="68">
+        <v>1</v>
+      </c>
+      <c r="S17" s="68">
+        <v>1</v>
+      </c>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68">
+        <v>1</v>
+      </c>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="62">
+        <f t="shared" ref="Z17:Z23" si="10">IFERROR(O17/$Y17,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AA17" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB17" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AC17" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AD17" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE17" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AI17" s="63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="23" t="str">
         <f t="shared" si="5"/>
         <v>Gown</v>
       </c>
-      <c r="AL15" s="3">
+      <c r="AL17" s="3">
         <f t="shared" si="6"/>
         <v>153</v>
       </c>
-      <c r="AM15" s="55">
+      <c r="AM17" s="51">
         <f t="shared" si="6"/>
-        <v>1100</v>
-      </c>
-      <c r="AN15" s="55">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="51">
         <f t="shared" si="7"/>
-        <v>245</v>
-      </c>
-      <c r="AO15" s="55">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="51">
         <f t="shared" si="7"/>
-        <v>195</v>
-      </c>
-      <c r="AP15" s="55">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="51">
         <f t="shared" si="7"/>
-        <v>290</v>
-      </c>
-      <c r="AQ15" s="55">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AR15" s="55">
+      <c r="AR17" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AS15" s="55">
+      <c r="AS17" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT15" s="55">
+      <c r="AT17" s="51">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="AU15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AV15" s="24">
+      <c r="AV17" s="24">
         <f t="shared" si="9"/>
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="16" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="52">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="48">
         <v>2</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E18" s="48">
         <v>2</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F18" s="48">
         <v>2</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G18" s="48">
         <v>4</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H18" s="48">
         <v>2</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I18" s="48">
         <v>4</v>
       </c>
-      <c r="J16" s="52">
+      <c r="J18" s="48">
         <v>4</v>
       </c>
-      <c r="K16" s="52">
-        <v>1</v>
-      </c>
-      <c r="L16" s="13">
-        <v>1</v>
-      </c>
-      <c r="N16" s="19" t="s">
+      <c r="K18" s="48">
+        <v>1</v>
+      </c>
+      <c r="L18" s="13">
+        <v>1</v>
+      </c>
+      <c r="N18" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="5">
-        <v>1</v>
-      </c>
-      <c r="P16" s="89">
+      <c r="O18" s="5">
+        <v>1</v>
+      </c>
+      <c r="P18" s="68">
         <v>2</v>
       </c>
-      <c r="Q16" s="89">
+      <c r="Q18" s="68">
         <v>2</v>
       </c>
-      <c r="R16" s="89">
+      <c r="R18" s="68">
         <v>2</v>
       </c>
-      <c r="S16" s="89">
+      <c r="S18" s="68">
         <v>3</v>
       </c>
-      <c r="T16" s="89"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89">
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68">
         <v>2</v>
       </c>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="70">
+      <c r="X18" s="6"/>
+      <c r="Y18" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="62">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AA18" s="2">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AB16" s="2">
+      <c r="AB18" s="2">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AC16" s="2">
+      <c r="AC18" s="2">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AD18" s="2">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AE16" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="2">
+      <c r="AE18" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="2">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AI16" s="71">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK16" s="23" t="str">
+      <c r="AI18" s="63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="23" t="str">
         <f t="shared" si="5"/>
         <v>Glove (pair)</v>
       </c>
-      <c r="AL16" s="3">
+      <c r="AL18" s="3">
         <f t="shared" si="6"/>
         <v>153</v>
       </c>
-      <c r="AM16" s="55">
+      <c r="AM18" s="51">
         <f t="shared" si="6"/>
-        <v>2200</v>
-      </c>
-      <c r="AN16" s="55">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="51">
         <f t="shared" si="7"/>
-        <v>490</v>
-      </c>
-      <c r="AO16" s="55">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="51">
         <f t="shared" si="7"/>
-        <v>390</v>
-      </c>
-      <c r="AP16" s="55">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="51">
         <f t="shared" si="7"/>
-        <v>870</v>
-      </c>
-      <c r="AQ16" s="55">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AR16" s="55">
+      <c r="AR18" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AS16" s="55">
+      <c r="AS18" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT16" s="55">
+      <c r="AT18" s="51">
         <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="AU16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AV16" s="24">
+      <c r="AV18" s="24">
         <f t="shared" si="9"/>
-        <v>4143</v>
-      </c>
-    </row>
-    <row r="17" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52">
+      <c r="C19" s="5"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48">
         <v>3</v>
       </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52">
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48">
         <v>2</v>
       </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="13"/>
-      <c r="N17" s="19" t="s">
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="13"/>
+      <c r="N19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="O17" s="5">
-        <v>0</v>
-      </c>
-      <c r="P17" s="89">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="89">
-        <v>0</v>
-      </c>
-      <c r="R17" s="89">
-        <v>1</v>
-      </c>
-      <c r="S17" s="89">
-        <v>1</v>
-      </c>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89">
-        <v>1</v>
-      </c>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="70">
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="68">
+        <v>0</v>
+      </c>
+      <c r="R19" s="68">
+        <v>1</v>
+      </c>
+      <c r="S19" s="68">
+        <v>1</v>
+      </c>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68">
+        <v>1</v>
+      </c>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="62">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB17" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AD17" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AE17" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH17" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AI17" s="71">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK17" s="23" t="str">
+      <c r="AA19" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB19" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AD19" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AE19" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AI19" s="63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="23" t="str">
         <f t="shared" si="5"/>
         <v>Cap</v>
       </c>
-      <c r="AL17" s="3">
+      <c r="AL19" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AM17" s="55">
+      <c r="AM19" s="51">
         <f t="shared" si="6"/>
-        <v>1100</v>
-      </c>
-      <c r="AN17" s="55">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AO17" s="55">
+      <c r="AO19" s="51">
         <f t="shared" si="7"/>
-        <v>195</v>
-      </c>
-      <c r="AP17" s="55">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="51">
         <f t="shared" si="7"/>
-        <v>290</v>
-      </c>
-      <c r="AQ17" s="55">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AR17" s="55">
+      <c r="AR19" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AS17" s="55">
+      <c r="AS19" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT17" s="55">
+      <c r="AT19" s="51">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="AU17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AV17" s="24">
+      <c r="AV19" s="24">
         <f t="shared" si="9"/>
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="18" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B18" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B20" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52">
-        <v>1</v>
-      </c>
-      <c r="F18" s="52">
+      <c r="C20" s="5"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48">
+        <v>1</v>
+      </c>
+      <c r="F20" s="48">
         <v>2</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G20" s="48">
         <v>3</v>
       </c>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52">
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48">
         <v>4</v>
       </c>
-      <c r="K18" s="52"/>
-      <c r="L18" s="13"/>
-      <c r="N18" s="19" t="s">
+      <c r="K20" s="48"/>
+      <c r="L20" s="13"/>
+      <c r="N20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="5">
-        <v>1</v>
-      </c>
-      <c r="P18" s="89">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="89">
-        <v>1</v>
-      </c>
-      <c r="R18" s="89">
-        <v>1</v>
-      </c>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89">
-        <v>1</v>
-      </c>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="13">
+      <c r="O20" s="5">
+        <v>1</v>
+      </c>
+      <c r="P20" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="68">
+        <v>1</v>
+      </c>
+      <c r="R20" s="68">
+        <v>1</v>
+      </c>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68">
+        <v>1</v>
+      </c>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="13">
         <v>100</v>
       </c>
-      <c r="Z18" s="70">
+      <c r="Z20" s="62">
         <f t="shared" si="10"/>
         <v>0.01</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AA20" s="2">
         <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
-      <c r="AB18" s="2">
+      <c r="AB20" s="2">
         <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
-      <c r="AC18" s="2">
+      <c r="AC20" s="2">
         <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
-      <c r="AD18" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH18" s="2">
+      <c r="AD20" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="2">
         <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
-      <c r="AI18" s="71">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK18" s="23" t="str">
+      <c r="AI20" s="63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="23" t="str">
         <f t="shared" si="5"/>
         <v>Face-shield</v>
       </c>
-      <c r="AL18" s="3">
+      <c r="AL20" s="3">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AM18" s="55">
+      <c r="AM20" s="51">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="AN18" s="55">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="51">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AO18" s="55">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="51">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP20" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AR20" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AS20" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AT20" s="51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AU20" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AV20" s="24">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AP18" s="55">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="55">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AR18" s="55">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AS18" s="55">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT18" s="55">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AU18" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AV18" s="24">
-        <f t="shared" si="9"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B19" s="12" t="s">
+    </row>
+    <row r="21" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="13"/>
-      <c r="N19" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="89">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="89">
-        <v>0</v>
-      </c>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89">
-        <v>1</v>
-      </c>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="13">
+      <c r="C21" s="5"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="13"/>
+      <c r="N21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="5"/>
+      <c r="P21" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="68">
+        <v>0</v>
+      </c>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68">
+        <v>1</v>
+      </c>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="13">
         <v>500</v>
       </c>
-      <c r="Z19" s="70">
+      <c r="Z21" s="62">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AA21" s="2">
         <f t="shared" si="4"/>
         <v>2E-3</v>
       </c>
-      <c r="AB19" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="2">
+      <c r="AB21" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2">
         <f t="shared" si="4"/>
         <v>2E-3</v>
       </c>
-      <c r="AE19" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH19" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI19" s="71">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK19" s="23" t="str">
+      <c r="AE21" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="23" t="str">
         <f t="shared" si="5"/>
         <v>PAPR-Hood</v>
       </c>
-      <c r="AL19" s="3">
+      <c r="AL21" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AM19" s="55">
+      <c r="AM21" s="51">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="AN19" s="55">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AO19" s="55">
+      <c r="AO21" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP19" s="55">
+      <c r="AP21" s="51">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AQ19" s="55">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AR19" s="55">
+      <c r="AR21" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AS19" s="55">
+      <c r="AS21" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT19" s="55">
+      <c r="AT21" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AU19" s="4">
+      <c r="AU21" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AV19" s="24">
+      <c r="AV21" s="24">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48">
+        <v>2</v>
+      </c>
+      <c r="G22" s="48">
+        <v>2</v>
+      </c>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48">
+        <v>2</v>
+      </c>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="13"/>
+      <c r="N22" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="5">
+        <v>2</v>
+      </c>
+      <c r="P22" s="68">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B20" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52">
+      <c r="Q22" s="68">
+        <v>1</v>
+      </c>
+      <c r="R22" s="68">
         <v>2</v>
       </c>
-      <c r="G20" s="52">
+      <c r="S22" s="68">
+        <v>4</v>
+      </c>
+      <c r="T22" s="68"/>
+      <c r="U22" s="68"/>
+      <c r="V22" s="68"/>
+      <c r="W22" s="68">
         <v>2</v>
       </c>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52">
-        <v>2</v>
-      </c>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="13"/>
-      <c r="N20" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="O20" s="5">
-        <v>2</v>
-      </c>
-      <c r="P20" s="89">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="89">
-        <v>1</v>
-      </c>
-      <c r="R20" s="89">
-        <v>2</v>
-      </c>
-      <c r="S20" s="89">
-        <v>4</v>
-      </c>
-      <c r="T20" s="89"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="89">
-        <v>2</v>
-      </c>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="70">
+      <c r="X22" s="6"/>
+      <c r="Y22" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="62">
         <f t="shared" si="10"/>
         <v>2</v>
-      </c>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
-      <c r="AI20" s="71">
-        <f t="shared" ref="AI20:AI21" si="11">IFERROR(X20/$Y20,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AK20" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>Purple Wipes</v>
-      </c>
-      <c r="AL20" s="3">
-        <f t="shared" ref="AL20:AL33" si="12">IFERROR(ROUNDUP(C$7*C$34*Z20,0), "")</f>
-        <v>305</v>
-      </c>
-      <c r="AM20" s="55"/>
-      <c r="AN20" s="55"/>
-      <c r="AO20" s="55"/>
-      <c r="AP20" s="55"/>
-      <c r="AQ20" s="55"/>
-      <c r="AR20" s="55"/>
-      <c r="AS20" s="55"/>
-      <c r="AT20" s="55"/>
-      <c r="AU20" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AV20" s="24">
-        <f t="shared" si="9"/>
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B21" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52">
-        <v>1</v>
-      </c>
-      <c r="G21" s="52">
-        <v>2</v>
-      </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52">
-        <v>1</v>
-      </c>
-      <c r="J21" s="52">
-        <v>2</v>
-      </c>
-      <c r="K21" s="52"/>
-      <c r="L21" s="13"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="70" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
-      <c r="AI21" s="71" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AK21" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AL21" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AM21" s="55"/>
-      <c r="AN21" s="55"/>
-      <c r="AO21" s="55"/>
-      <c r="AP21" s="55"/>
-      <c r="AQ21" s="55"/>
-      <c r="AR21" s="55"/>
-      <c r="AS21" s="55"/>
-      <c r="AT21" s="55"/>
-      <c r="AU21" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AV21" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B22" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="13"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="70" t="str">
-        <f t="shared" ref="Z22:Z33" si="13">IFERROR(O22/$Y22,"")</f>
-        <v/>
       </c>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
@@ -3549,69 +3559,71 @@
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
-      <c r="AI22" s="71" t="str">
-        <f t="shared" ref="AI22:AI33" si="14">IFERROR(X22/$Y22,"")</f>
-        <v/>
+      <c r="AI22" s="63">
+        <f t="shared" ref="AI22:AI23" si="11">IFERROR(X22/$Y22,"")</f>
+        <v>0</v>
       </c>
       <c r="AK22" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AL22" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AM22" s="55"/>
-      <c r="AN22" s="55"/>
-      <c r="AO22" s="55"/>
-      <c r="AP22" s="55"/>
-      <c r="AQ22" s="55"/>
-      <c r="AR22" s="55"/>
-      <c r="AS22" s="55"/>
-      <c r="AT22" s="55"/>
-      <c r="AU22" s="4" t="str">
+        <v>Purple Wipes</v>
+      </c>
+      <c r="AL22" s="3">
+        <f t="shared" ref="AL22:AL35" si="12">IFERROR(ROUNDUP(C$9*C$36*Z22,0), "")</f>
+        <v>305</v>
+      </c>
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="51"/>
+      <c r="AO22" s="51"/>
+      <c r="AP22" s="51"/>
+      <c r="AQ22" s="51"/>
+      <c r="AR22" s="51"/>
+      <c r="AS22" s="51"/>
+      <c r="AT22" s="51"/>
+      <c r="AU22" s="4">
         <f t="shared" si="8"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AV22" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B23" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52">
-        <v>1</v>
-      </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52">
-        <v>1</v>
-      </c>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52">
-        <v>1</v>
-      </c>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48">
+        <v>1</v>
+      </c>
+      <c r="G23" s="48">
+        <v>2</v>
+      </c>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48">
+        <v>1</v>
+      </c>
+      <c r="J23" s="48">
+        <v>2</v>
+      </c>
+      <c r="K23" s="48"/>
       <c r="L23" s="13"/>
       <c r="N23" s="19"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="13"/>
-      <c r="Z23" s="70" t="str">
-        <f t="shared" si="13"/>
+      <c r="Z23" s="62" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AA23" s="2"/>
@@ -3622,8 +3634,8 @@
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
-      <c r="AI23" s="71" t="str">
-        <f t="shared" si="14"/>
+      <c r="AI23" s="63" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AK23" s="23" t="str">
@@ -3634,14 +3646,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AM23" s="55"/>
-      <c r="AN23" s="55"/>
-      <c r="AO23" s="55"/>
-      <c r="AP23" s="55"/>
-      <c r="AQ23" s="55"/>
-      <c r="AR23" s="55"/>
-      <c r="AS23" s="55"/>
-      <c r="AT23" s="55"/>
+      <c r="AM23" s="51"/>
+      <c r="AN23" s="51"/>
+      <c r="AO23" s="51"/>
+      <c r="AP23" s="51"/>
+      <c r="AQ23" s="51"/>
+      <c r="AR23" s="51"/>
+      <c r="AS23" s="51"/>
+      <c r="AT23" s="51"/>
       <c r="AU23" s="4" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3653,48 +3665,32 @@
     </row>
     <row r="24" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="52">
-        <v>1</v>
-      </c>
-      <c r="E24" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="F24" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="G24" s="52">
-        <v>1</v>
-      </c>
-      <c r="H24" s="52">
-        <v>1</v>
-      </c>
-      <c r="I24" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="J24" s="52">
-        <v>1</v>
-      </c>
-      <c r="K24" s="52"/>
+        <v>7</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
       <c r="L24" s="13"/>
       <c r="N24" s="19"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="13"/>
-      <c r="Z24" s="70" t="str">
-        <f t="shared" si="13"/>
+      <c r="Z24" s="62" t="str">
+        <f t="shared" ref="Z24:Z35" si="13">IFERROR(O24/$Y24,"")</f>
         <v/>
       </c>
       <c r="AA24" s="2"/>
@@ -3705,8 +3701,8 @@
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
-      <c r="AI24" s="71" t="str">
-        <f t="shared" si="14"/>
+      <c r="AI24" s="63" t="str">
+        <f t="shared" ref="AI24:AI35" si="14">IFERROR(X24/$Y24,"")</f>
         <v/>
       </c>
       <c r="AK24" s="23" t="str">
@@ -3717,14 +3713,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AM24" s="55"/>
-      <c r="AN24" s="55"/>
-      <c r="AO24" s="55"/>
-      <c r="AP24" s="55"/>
-      <c r="AQ24" s="55"/>
-      <c r="AR24" s="55"/>
-      <c r="AS24" s="55"/>
-      <c r="AT24" s="55"/>
+      <c r="AM24" s="51"/>
+      <c r="AN24" s="51"/>
+      <c r="AO24" s="51"/>
+      <c r="AP24" s="51"/>
+      <c r="AQ24" s="51"/>
+      <c r="AR24" s="51"/>
+      <c r="AS24" s="51"/>
+      <c r="AT24" s="51"/>
       <c r="AU24" s="4" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3735,48 +3731,38 @@
       </c>
     </row>
     <row r="25" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B25" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="D25" s="52">
-        <v>1</v>
-      </c>
-      <c r="E25" s="52">
-        <v>1</v>
-      </c>
-      <c r="F25" s="52">
-        <v>1</v>
-      </c>
-      <c r="G25" s="52">
-        <v>1</v>
-      </c>
-      <c r="H25" s="52">
-        <v>1</v>
-      </c>
-      <c r="I25" s="52">
-        <v>1</v>
-      </c>
-      <c r="J25" s="52">
-        <v>1</v>
-      </c>
-      <c r="K25" s="52"/>
+      <c r="B25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48">
+        <v>1</v>
+      </c>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48">
+        <v>1</v>
+      </c>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48">
+        <v>1</v>
+      </c>
       <c r="L25" s="13"/>
       <c r="N25" s="19"/>
       <c r="O25" s="5"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="13"/>
-      <c r="Z25" s="70" t="str">
+      <c r="Z25" s="62" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -3788,7 +3774,7 @@
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
-      <c r="AI25" s="71" t="str">
+      <c r="AI25" s="63" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
@@ -3800,14 +3786,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AM25" s="55"/>
-      <c r="AN25" s="55"/>
-      <c r="AO25" s="55"/>
-      <c r="AP25" s="55"/>
-      <c r="AQ25" s="55"/>
-      <c r="AR25" s="55"/>
-      <c r="AS25" s="55"/>
-      <c r="AT25" s="55"/>
+      <c r="AM25" s="51"/>
+      <c r="AN25" s="51"/>
+      <c r="AO25" s="51"/>
+      <c r="AP25" s="51"/>
+      <c r="AQ25" s="51"/>
+      <c r="AR25" s="51"/>
+      <c r="AS25" s="51"/>
+      <c r="AT25" s="51"/>
       <c r="AU25" s="4" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3819,33 +3805,47 @@
     </row>
     <row r="26" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="52">
-        <v>2</v>
-      </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
+        <v>39</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="48">
+        <v>1</v>
+      </c>
+      <c r="E26" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="48">
+        <v>1</v>
+      </c>
+      <c r="H26" s="48">
+        <v>1</v>
+      </c>
+      <c r="I26" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="J26" s="48">
+        <v>1</v>
+      </c>
+      <c r="K26" s="48"/>
       <c r="L26" s="13"/>
       <c r="N26" s="19"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="13"/>
-      <c r="Z26" s="70" t="str">
+      <c r="Z26" s="62" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -3857,7 +3857,7 @@
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
-      <c r="AI26" s="71" t="str">
+      <c r="AI26" s="63" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
@@ -3869,14 +3869,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AM26" s="55"/>
-      <c r="AN26" s="55"/>
-      <c r="AO26" s="55"/>
-      <c r="AP26" s="55"/>
-      <c r="AQ26" s="55"/>
-      <c r="AR26" s="55"/>
-      <c r="AS26" s="55"/>
-      <c r="AT26" s="55"/>
+      <c r="AM26" s="51"/>
+      <c r="AN26" s="51"/>
+      <c r="AO26" s="51"/>
+      <c r="AP26" s="51"/>
+      <c r="AQ26" s="51"/>
+      <c r="AR26" s="51"/>
+      <c r="AS26" s="51"/>
+      <c r="AT26" s="51"/>
       <c r="AU26" s="4" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3887,30 +3887,48 @@
       </c>
     </row>
     <row r="27" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B27" s="12"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
+      <c r="B27" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="D27" s="48">
+        <v>1</v>
+      </c>
+      <c r="E27" s="48">
+        <v>1</v>
+      </c>
+      <c r="F27" s="48">
+        <v>1</v>
+      </c>
+      <c r="G27" s="48">
+        <v>1</v>
+      </c>
+      <c r="H27" s="48">
+        <v>1</v>
+      </c>
+      <c r="I27" s="48">
+        <v>1</v>
+      </c>
+      <c r="J27" s="48">
+        <v>1</v>
+      </c>
+      <c r="K27" s="48"/>
       <c r="L27" s="13"/>
       <c r="N27" s="19"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="13"/>
-      <c r="Z27" s="70" t="str">
+      <c r="Z27" s="62" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -3922,7 +3940,7 @@
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
-      <c r="AI27" s="71" t="str">
+      <c r="AI27" s="63" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
@@ -3934,14 +3952,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AM27" s="55"/>
-      <c r="AN27" s="55"/>
-      <c r="AO27" s="55"/>
-      <c r="AP27" s="55"/>
-      <c r="AQ27" s="55"/>
-      <c r="AR27" s="55"/>
-      <c r="AS27" s="55"/>
-      <c r="AT27" s="55"/>
+      <c r="AM27" s="51"/>
+      <c r="AN27" s="51"/>
+      <c r="AO27" s="51"/>
+      <c r="AP27" s="51"/>
+      <c r="AQ27" s="51"/>
+      <c r="AR27" s="51"/>
+      <c r="AS27" s="51"/>
+      <c r="AT27" s="51"/>
       <c r="AU27" s="4" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3952,30 +3970,34 @@
       </c>
     </row>
     <row r="28" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B28" s="12"/>
+      <c r="B28" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
+      <c r="D28" s="48">
+        <v>2</v>
+      </c>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
       <c r="L28" s="13"/>
       <c r="N28" s="19"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="13"/>
-      <c r="Z28" s="70" t="str">
+      <c r="Z28" s="62" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -3987,7 +4009,7 @@
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
-      <c r="AI28" s="71" t="str">
+      <c r="AI28" s="63" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
@@ -3999,14 +4021,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AM28" s="55"/>
-      <c r="AN28" s="55"/>
-      <c r="AO28" s="55"/>
-      <c r="AP28" s="55"/>
-      <c r="AQ28" s="55"/>
-      <c r="AR28" s="55"/>
-      <c r="AS28" s="55"/>
-      <c r="AT28" s="55"/>
+      <c r="AM28" s="51"/>
+      <c r="AN28" s="51"/>
+      <c r="AO28" s="51"/>
+      <c r="AP28" s="51"/>
+      <c r="AQ28" s="51"/>
+      <c r="AR28" s="51"/>
+      <c r="AS28" s="51"/>
+      <c r="AT28" s="51"/>
       <c r="AU28" s="4" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4019,28 +4041,28 @@
     <row r="29" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
       <c r="L29" s="13"/>
       <c r="N29" s="19"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="13"/>
-      <c r="Z29" s="70" t="str">
+      <c r="Z29" s="62" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -4052,7 +4074,7 @@
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
-      <c r="AI29" s="71" t="str">
+      <c r="AI29" s="63" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
@@ -4064,14 +4086,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AM29" s="55"/>
-      <c r="AN29" s="55"/>
-      <c r="AO29" s="55"/>
-      <c r="AP29" s="55"/>
-      <c r="AQ29" s="55"/>
-      <c r="AR29" s="55"/>
-      <c r="AS29" s="55"/>
-      <c r="AT29" s="55"/>
+      <c r="AM29" s="51"/>
+      <c r="AN29" s="51"/>
+      <c r="AO29" s="51"/>
+      <c r="AP29" s="51"/>
+      <c r="AQ29" s="51"/>
+      <c r="AR29" s="51"/>
+      <c r="AS29" s="51"/>
+      <c r="AT29" s="51"/>
       <c r="AU29" s="4" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4084,28 +4106,28 @@
     <row r="30" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
       <c r="L30" s="13"/>
       <c r="N30" s="19"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="13"/>
-      <c r="Z30" s="70" t="str">
+      <c r="Z30" s="62" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -4117,7 +4139,7 @@
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
-      <c r="AI30" s="71" t="str">
+      <c r="AI30" s="63" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
@@ -4129,14 +4151,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AM30" s="55"/>
-      <c r="AN30" s="55"/>
-      <c r="AO30" s="55"/>
-      <c r="AP30" s="55"/>
-      <c r="AQ30" s="55"/>
-      <c r="AR30" s="55"/>
-      <c r="AS30" s="55"/>
-      <c r="AT30" s="55"/>
+      <c r="AM30" s="51"/>
+      <c r="AN30" s="51"/>
+      <c r="AO30" s="51"/>
+      <c r="AP30" s="51"/>
+      <c r="AQ30" s="51"/>
+      <c r="AR30" s="51"/>
+      <c r="AS30" s="51"/>
+      <c r="AT30" s="51"/>
       <c r="AU30" s="4" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4149,28 +4171,28 @@
     <row r="31" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B31" s="12"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
       <c r="L31" s="13"/>
       <c r="N31" s="19"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="13"/>
-      <c r="Z31" s="70" t="str">
+      <c r="Z31" s="62" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -4182,7 +4204,7 @@
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
-      <c r="AI31" s="71" t="str">
+      <c r="AI31" s="63" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
@@ -4194,14 +4216,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AM31" s="55"/>
-      <c r="AN31" s="55"/>
-      <c r="AO31" s="55"/>
-      <c r="AP31" s="55"/>
-      <c r="AQ31" s="55"/>
-      <c r="AR31" s="55"/>
-      <c r="AS31" s="55"/>
-      <c r="AT31" s="55"/>
+      <c r="AM31" s="51"/>
+      <c r="AN31" s="51"/>
+      <c r="AO31" s="51"/>
+      <c r="AP31" s="51"/>
+      <c r="AQ31" s="51"/>
+      <c r="AR31" s="51"/>
+      <c r="AS31" s="51"/>
+      <c r="AT31" s="51"/>
       <c r="AU31" s="4" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4214,28 +4236,28 @@
     <row r="32" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B32" s="12"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
       <c r="L32" s="13"/>
       <c r="N32" s="19"/>
       <c r="O32" s="5"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="13"/>
-      <c r="Z32" s="70" t="str">
+      <c r="Z32" s="62" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
@@ -4247,7 +4269,7 @@
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
-      <c r="AI32" s="71" t="str">
+      <c r="AI32" s="63" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
@@ -4259,14 +4281,14 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AM32" s="55"/>
-      <c r="AN32" s="55"/>
-      <c r="AO32" s="55"/>
-      <c r="AP32" s="55"/>
-      <c r="AQ32" s="55"/>
-      <c r="AR32" s="55"/>
-      <c r="AS32" s="55"/>
-      <c r="AT32" s="55"/>
+      <c r="AM32" s="51"/>
+      <c r="AN32" s="51"/>
+      <c r="AO32" s="51"/>
+      <c r="AP32" s="51"/>
+      <c r="AQ32" s="51"/>
+      <c r="AR32" s="51"/>
+      <c r="AS32" s="51"/>
+      <c r="AT32" s="51"/>
       <c r="AU32" s="4" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4276,63 +4298,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:48" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="15"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="57"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="60"/>
-      <c r="Z33" s="72" t="str">
+    <row r="33" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B33" s="12"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="13"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="62" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AA33" s="73"/>
-      <c r="AB33" s="73"/>
-      <c r="AC33" s="73"/>
-      <c r="AD33" s="73"/>
-      <c r="AE33" s="73"/>
-      <c r="AF33" s="73"/>
-      <c r="AG33" s="73"/>
-      <c r="AH33" s="73"/>
-      <c r="AI33" s="74" t="str">
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="63" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AK33" s="25" t="str">
+      <c r="AK33" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AL33" s="26" t="str">
+      <c r="AL33" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="56"/>
-      <c r="AQ33" s="56"/>
-      <c r="AR33" s="56"/>
-      <c r="AS33" s="56"/>
-      <c r="AT33" s="56"/>
-      <c r="AU33" s="27" t="str">
+      <c r="AM33" s="51"/>
+      <c r="AN33" s="51"/>
+      <c r="AO33" s="51"/>
+      <c r="AP33" s="51"/>
+      <c r="AQ33" s="51"/>
+      <c r="AR33" s="51"/>
+      <c r="AS33" s="51"/>
+      <c r="AT33" s="51"/>
+      <c r="AU33" s="4" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -4341,57 +4363,188 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:48" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
+    <row r="34" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="B34" s="12"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="13"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="62" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="63" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AK34" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AL34" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AM34" s="51"/>
+      <c r="AN34" s="51"/>
+      <c r="AO34" s="51"/>
+      <c r="AP34" s="51"/>
+      <c r="AQ34" s="51"/>
+      <c r="AR34" s="51"/>
+      <c r="AS34" s="51"/>
+      <c r="AT34" s="51"/>
+      <c r="AU34" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV34" s="24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:48" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="15"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="64" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AA35" s="65"/>
+      <c r="AB35" s="65"/>
+      <c r="AC35" s="65"/>
+      <c r="AD35" s="65"/>
+      <c r="AE35" s="65"/>
+      <c r="AF35" s="65"/>
+      <c r="AG35" s="65"/>
+      <c r="AH35" s="65"/>
+      <c r="AI35" s="66" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AK35" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AL35" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AM35" s="52"/>
+      <c r="AN35" s="52"/>
+      <c r="AO35" s="52"/>
+      <c r="AP35" s="52"/>
+      <c r="AQ35" s="52"/>
+      <c r="AR35" s="52"/>
+      <c r="AS35" s="52"/>
+      <c r="AT35" s="52"/>
+      <c r="AU35" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV35" s="24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:48" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="17">
-        <f>SUM(C13:C33)</f>
+      <c r="C36" s="17">
+        <f>SUM(C15:C35)</f>
         <v>3.05</v>
       </c>
-      <c r="D34" s="54">
-        <f>SUM(D13:D33)</f>
+      <c r="D36" s="50">
+        <f>SUM(D15:D35)</f>
         <v>11</v>
       </c>
-      <c r="E34" s="54">
-        <f t="shared" ref="E34:K34" si="15">SUM(E13:E33)</f>
+      <c r="E36" s="50">
+        <f t="shared" ref="E36:K36" si="15">SUM(E15:E35)</f>
         <v>24.5</v>
       </c>
-      <c r="F34" s="54">
+      <c r="F36" s="50">
         <f t="shared" si="15"/>
         <v>19.5</v>
       </c>
-      <c r="G34" s="54">
+      <c r="G36" s="50">
         <f t="shared" si="15"/>
         <v>29</v>
       </c>
-      <c r="H34" s="54">
+      <c r="H36" s="50">
         <f t="shared" si="15"/>
         <v>21</v>
       </c>
-      <c r="I34" s="54">
+      <c r="I36" s="50">
         <f t="shared" si="15"/>
         <v>18.5</v>
       </c>
-      <c r="J34" s="54">
+      <c r="J36" s="50">
         <f t="shared" si="15"/>
         <v>24</v>
       </c>
-      <c r="K34" s="54">
+      <c r="K36" s="50">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="L34" s="18">
-        <f>SUM(L13:L33)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:48" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="L36" s="18">
+        <f>SUM(L15:L35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:48" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="O11:X11"/>
-    <mergeCell ref="AL11:AV11"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="O13:X13"/>
+    <mergeCell ref="AL13:AV13"/>
     <mergeCell ref="B2:L4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -4418,347 +4571,347 @@
     <row r="1" spans="2:12" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="44"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="39"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="39"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="36"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="39"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="39"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="36"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="39"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="36"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="39"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="36"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="39"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="39"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="36"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="39"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="36"/>
     </row>
     <row r="13" spans="2:12" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="39"/>
-      <c r="C13" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="36"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="39"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="36"/>
     </row>
     <row r="15" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="39"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="36"/>
     </row>
     <row r="16" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="39"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="39"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="41" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="36"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="38"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="36"/>
+    </row>
+    <row r="19" spans="2:12" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="38"/>
+      <c r="C19" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="36"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="38"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="36"/>
+    </row>
+    <row r="21" spans="2:12" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="38"/>
+      <c r="C21" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="36"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="38"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="36"/>
+    </row>
+    <row r="23" spans="2:12" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="38"/>
+      <c r="C23" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="36"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="38"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="36"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="38"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="36"/>
+    </row>
+    <row r="26" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="35"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="33"/>
+    </row>
+    <row r="27" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="37"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="39"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="37"/>
-    </row>
-    <row r="19" spans="2:12" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="39"/>
-      <c r="C19" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="37"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="39"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="37"/>
-    </row>
-    <row r="21" spans="2:12" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="39"/>
-      <c r="C21" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="37"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="39"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="37"/>
-    </row>
-    <row r="23" spans="2:12" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="39"/>
-      <c r="C23" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="37"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="39"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="37"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="39"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="37"/>
-    </row>
-    <row r="26" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="36"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="34"/>
-    </row>
-    <row r="27" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="87"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>

--- a/PPE_calculator_wide.xlsx
+++ b/PPE_calculator_wide.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eotles/Documents/workspace/covid_staffing_exo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7BA25E-170D-DE47-96BC-21B3312F3AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F534DA1-4A07-2043-8EBE-F9E0E25B95B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-53220" yWindow="-11800" windowWidth="41780" windowHeight="26400" xr2:uid="{CE7FBBC9-ED7D-2B46-9B81-72B960D0E09A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{CE7FBBC9-ED7D-2B46-9B81-72B960D0E09A}"/>
   </bookViews>
   <sheets>
     <sheet name="roll-up" sheetId="1" r:id="rId1"/>
@@ -109,9 +110,6 @@
   </si>
   <si>
     <t>your inputs</t>
-  </si>
-  <si>
-    <t>Contacts / Pt</t>
   </si>
   <si>
     <t>Items Used / Contact</t>
@@ -305,6 +303,9 @@
   </si>
   <si>
     <t>Triage</t>
+  </si>
+  <si>
+    <t>Contacts / Pt (in 24hr period)</t>
   </si>
 </sst>
 </file>
@@ -1061,6 +1062,24 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1102,24 +1121,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1946,8 +1947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADCAB64-EF5D-184C-8CB6-400E6CD8B782}">
   <dimension ref="A1:AW37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1968,43 +1969,43 @@
   <sheetData>
     <row r="1" spans="2:48" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
     </row>
     <row r="3" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
     </row>
     <row r="5" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B5" s="67"/>
@@ -2034,36 +2035,36 @@
     </row>
     <row r="7" spans="2:48" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:48" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="90"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="F8" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="G8" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="74" t="s">
+      <c r="H8" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="74" t="s">
+      <c r="I8" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="74" t="s">
+      <c r="J8" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="74" t="s">
+      <c r="K8" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="74" t="s">
+      <c r="L8" s="75" t="s">
         <v>50</v>
-      </c>
-      <c r="L8" s="75" t="s">
-        <v>51</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>24</v>
@@ -2295,52 +2296,52 @@
       <c r="AV12" s="32"/>
     </row>
     <row r="13" spans="2:48" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="91"/>
-      <c r="C13" s="76" t="s">
+      <c r="B13" s="77"/>
+      <c r="C13" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="83"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="77"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="79"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="85"/>
       <c r="Y13" s="45" t="s">
         <v>15</v>
       </c>
       <c r="Z13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AK13" s="92"/>
-      <c r="AL13" s="80" t="s">
+      <c r="AK13" s="78"/>
+      <c r="AL13" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="AM13" s="81"/>
-      <c r="AN13" s="81"/>
-      <c r="AO13" s="81"/>
-      <c r="AP13" s="81"/>
-      <c r="AQ13" s="81"/>
-      <c r="AR13" s="81"/>
-      <c r="AS13" s="81"/>
-      <c r="AT13" s="81"/>
-      <c r="AU13" s="81"/>
-      <c r="AV13" s="82"/>
+      <c r="AM13" s="87"/>
+      <c r="AN13" s="87"/>
+      <c r="AO13" s="87"/>
+      <c r="AP13" s="87"/>
+      <c r="AQ13" s="87"/>
+      <c r="AR13" s="87"/>
+      <c r="AS13" s="87"/>
+      <c r="AT13" s="87"/>
+      <c r="AU13" s="87"/>
+      <c r="AV13" s="88"/>
     </row>
     <row r="14" spans="2:48" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="44" t="s">
@@ -2476,43 +2477,43 @@
         <f>N14</f>
         <v>Item</v>
       </c>
-      <c r="AL14" s="93" t="str">
+      <c r="AL14" s="79" t="str">
         <f>C8</f>
         <v>Triage</v>
       </c>
-      <c r="AM14" s="94" t="str">
+      <c r="AM14" s="80" t="str">
         <f>D8</f>
         <v>ED</v>
       </c>
-      <c r="AN14" s="94" t="str">
+      <c r="AN14" s="80" t="str">
         <f t="shared" ref="AN14:AT14" si="3">E8</f>
         <v>COVID floor</v>
       </c>
-      <c r="AO14" s="94" t="str">
+      <c r="AO14" s="80" t="str">
         <f t="shared" si="3"/>
         <v>COVID ICU Step-Down</v>
       </c>
-      <c r="AP14" s="94" t="str">
+      <c r="AP14" s="80" t="str">
         <f t="shared" si="3"/>
         <v>COVID ICU Intubated</v>
       </c>
-      <c r="AQ14" s="94" t="str">
+      <c r="AQ14" s="80" t="str">
         <f t="shared" si="3"/>
         <v>Non-COVID floor</v>
       </c>
-      <c r="AR14" s="94" t="str">
+      <c r="AR14" s="80" t="str">
         <f t="shared" si="3"/>
         <v>Non-COVID SD</v>
       </c>
-      <c r="AS14" s="94" t="str">
+      <c r="AS14" s="80" t="str">
         <f t="shared" si="3"/>
         <v>Non-COVID ICU</v>
       </c>
-      <c r="AT14" s="94" t="str">
+      <c r="AT14" s="80" t="str">
         <f t="shared" si="3"/>
         <v>COVID Consult</v>
       </c>
-      <c r="AU14" s="95" t="str">
+      <c r="AU14" s="81" t="str">
         <f>L8</f>
         <v>Non-COVID Consult</v>
       </c>
@@ -2814,7 +2815,7 @@
     </row>
     <row r="17" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -2953,7 +2954,7 @@
     </row>
     <row r="18" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -3389,7 +3390,7 @@
       <c r="K21" s="48"/>
       <c r="L21" s="13"/>
       <c r="N21" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="68">
@@ -3520,7 +3521,7 @@
       <c r="K22" s="48"/>
       <c r="L22" s="13"/>
       <c r="N22" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O22" s="5">
         <v>2</v>
@@ -3805,7 +3806,7 @@
     </row>
     <row r="26" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -3888,7 +3889,7 @@
     </row>
     <row r="27" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B27" s="69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="5">
         <v>0.05</v>
@@ -3971,7 +3972,7 @@
     </row>
     <row r="28" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B28" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="48">
@@ -4540,7 +4541,6 @@
     </row>
     <row r="37" spans="2:48" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="C13:L13"/>
     <mergeCell ref="O13:X13"/>
@@ -4702,17 +4702,17 @@
     </row>
     <row r="13" spans="2:12" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="38"/>
-      <c r="C13" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
+      <c r="C13" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
       <c r="L13" s="36"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
@@ -4732,7 +4732,7 @@
       <c r="B15" s="38"/>
       <c r="C15" s="37"/>
       <c r="D15" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
@@ -4747,7 +4747,7 @@
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
       <c r="D16" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -4762,7 +4762,7 @@
       <c r="B17" s="38"/>
       <c r="C17" s="37"/>
       <c r="D17" s="40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
@@ -4788,17 +4788,17 @@
     </row>
     <row r="19" spans="2:12" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="38"/>
-      <c r="C19" s="89" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
+      <c r="C19" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
       <c r="L19" s="36"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -4816,17 +4816,17 @@
     </row>
     <row r="21" spans="2:12" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="38"/>
-      <c r="C21" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
+      <c r="C21" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
       <c r="L21" s="36"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
@@ -4844,17 +4844,17 @@
     </row>
     <row r="23" spans="2:12" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="38"/>
-      <c r="C23" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
+      <c r="C23" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
       <c r="L23" s="36"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -4873,14 +4873,14 @@
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="38"/>
       <c r="C25" s="37"/>
-      <c r="D25" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
+      <c r="D25" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="36"/>
@@ -4899,19 +4899,19 @@
       <c r="L26" s="33"/>
     </row>
     <row r="27" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="87"/>
+      <c r="B27" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="93"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>

--- a/PPE_calculator_wide.xlsx
+++ b/PPE_calculator_wide.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eotles/Documents/workspace/covid_staffing_exo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F534DA1-4A07-2043-8EBE-F9E0E25B95B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDF6394-4F85-BB44-AE1F-5B85B12B7CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{CE7FBBC9-ED7D-2B46-9B81-72B960D0E09A}"/>
+    <workbookView xWindow="-45380" yWindow="-13480" windowWidth="24940" windowHeight="25560" xr2:uid="{CE7FBBC9-ED7D-2B46-9B81-72B960D0E09A}"/>
   </bookViews>
   <sheets>
     <sheet name="roll-up" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Registered Nurse </t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Contacts / Pt (in 24hr period)</t>
+  </si>
+  <si>
+    <t>Authors: Erkin Otles, Kyla Terhune, Alex Highet, Brian George, Jordan Bohnen</t>
   </si>
 </sst>
 </file>
@@ -873,7 +876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1121,6 +1124,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1947,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADCAB64-EF5D-184C-8CB6-400E6CD8B782}">
   <dimension ref="A1:AW37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -4541,6 +4553,7 @@
     </row>
     <row r="37" spans="2:48" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="C13:L13"/>
     <mergeCell ref="O13:X13"/>
@@ -4555,10 +4568,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AE6923-D386-9543-B087-7ADA692DC36C}">
-  <dimension ref="B1:L27"/>
+  <dimension ref="B1:L28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="C23" sqref="C23:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -4898,30 +4911,46 @@
       <c r="K26" s="34"/>
       <c r="L26" s="33"/>
     </row>
-    <row r="27" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="91" t="s">
+    <row r="27" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="97"/>
+    </row>
+    <row r="28" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="93"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="93"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="6">
-    <mergeCell ref="B27:L27"/>
+  <mergeCells count="7">
+    <mergeCell ref="B28:L28"/>
     <mergeCell ref="D25:I25"/>
     <mergeCell ref="C13:K13"/>
     <mergeCell ref="C19:K19"/>
     <mergeCell ref="C21:K21"/>
     <mergeCell ref="C23:K23"/>
+    <mergeCell ref="B27:L27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D25" r:id="rId1" display="mailto:info@covidstaffing.org" xr:uid="{82809BDA-9C2C-814D-9F16-A31CD2C56914}"/>
